--- a/data/tables/sources.xlsx
+++ b/data/tables/sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/tsakonian-tools/TsakonianDB/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97632A1-B25C-46E3-9128-E2A4BAAD83A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2B7FC-1328-468B-BBCE-08D4DE29EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>source_id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Μάνου, Ελένη (2015). Το πρώκιου μι Τσακώνικο λεξικό με εικόνε</t>
+  </si>
+  <si>
+    <t>Κωστάκης, Θανάσης (1986). Λεξικό της τσακώνικης διάλεκτου</t>
   </si>
 </sst>
 </file>
@@ -104,8 +107,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}" name="Tabla1" displayName="Tabla1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9BFE6A19-9B22-404B-A2B4-47A087E2CDFE}" name="source_id"/>
     <tableColumn id="2" xr3:uid="{81F399DD-C578-40DC-94F8-01D977ED0433}" name="title"/>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +439,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/tables/sources.xlsx
+++ b/data/tables/sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2B7FC-1328-468B-BBCE-08D4DE29EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CAA2B7FC-1328-468B-BBCE-08D4DE29EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{274F78FF-823E-44D5-A452-466279EF222C}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>source_id</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Κωστάκης, Θανάσης (1986). Λεξικό της τσακώνικης διάλεκτου</t>
+  </si>
+  <si>
+    <t>Μαρνέρης, Πάνος. Facebook.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100011078446864</t>
   </si>
 </sst>
 </file>
@@ -107,8 +113,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9BFE6A19-9B22-404B-A2B4-47A087E2CDFE}" name="source_id"/>
     <tableColumn id="2" xr3:uid="{81F399DD-C578-40DC-94F8-01D977ED0433}" name="title"/>
@@ -381,19 +387,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -412,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -420,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -431,7 +437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -439,12 +445,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
